--- a/biology/Botanique/Proiphys_ambionensis/Proiphys_ambionensis.xlsx
+++ b/biology/Botanique/Proiphys_ambionensis/Proiphys_ambionensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Proiphys ambionensis est une espèce de plantes à fleurs de la famille des Liliaceae (ou des Amaryllidaceae) selon la classification classique. La classification phylogénétique la place dans la famille des Amaryllidaceae (ou optionnellement dans celle des Alliaceae).
 C'est une plante herbacée qui se rencontre en Asie du Sud-Est, en Indonésie et depuis la péninsule du cap York jusqu'au Central Queensland en Australie.
@@ -515,7 +527,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pancratium amboinense L.
 Eurycles amboinensis (L.) Lindl. ex Loudon</t>
@@ -546,14 +560,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (29 Jul 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (29 Jul 2010) :
 Proiphys alba (R.Br.) Mabb. (1980)
 Proiphys amboinensis (L.) Herb. (1821)
 Proiphys cunninghamii (Aiton ex Lindl.) Mabb. (1980)
 Proiphys infundibularis D.L.Jones &amp; Dowe (2001)
-Selon NCBI  (29 Jul 2010)[2] :
+Selon NCBI  (29 Jul 2010) :
 Proiphys cunninghamii</t>
         </is>
       </c>
